--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_85__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_85__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,31 +5417,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.6710324883460999</c:v>
+                  <c:v>-0.6710306406021118</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.159241110086441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.61507415771484</c:v>
+                  <c:v>43.61506652832031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.78258514404297</c:v>
+                  <c:v>23.7825870513916</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26.7692756652832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08784899860620499</c:v>
+                  <c:v>0.08785272389650345</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.6779938340187073</c:v>
+                  <c:v>-0.6779956817626953</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.6110828518867493</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.8663706183433533</c:v>
+                  <c:v>-0.8663780689239502</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.311858892440796</c:v>
@@ -5450,46 +5450,46 @@
                   <c:v>-1.142575860023499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.02057647705078</c:v>
+                  <c:v>50.02057266235352</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.79412442445755</c:v>
+                  <c:v>-0.7941262722015381</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.622809171676636</c:v>
+                  <c:v>-1.622807383537292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.93474197387695</c:v>
+                  <c:v>38.93474578857422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.9336986541748</c:v>
+                  <c:v>25.93369293212891</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.713895797729492</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.99028015136719</c:v>
+                  <c:v>45.99027252197266</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-0.1372103244066238</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.670074462890625</c:v>
+                  <c:v>1.670072674751282</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.745321154594421</c:v>
+                  <c:v>1.745323061943054</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-1.185615539550781</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.51687908172607</c:v>
+                  <c:v>14.51688289642334</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-1.153296589851379</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1334788501262665</c:v>
+                  <c:v>0.1334807276725769</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.5607872605323792</c:v>
@@ -5504,16 +5504,16 @@
                   <c:v>-1.197389841079712</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>46.87187957763672</c:v>
+                  <c:v>46.87187194824219</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-0.9459660053253174</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.6879611611366272</c:v>
+                  <c:v>-0.6879593133926392</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.57556915283203</c:v>
+                  <c:v>37.5755729675293</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-0.2816560864448547</c:v>
@@ -5531,13 +5531,13 @@
                   <c:v>24.57817268371582</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.55952835083008</c:v>
+                  <c:v>37.55953216552734</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1.533472061157227</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.45168685913086</c:v>
+                  <c:v>40.45169067382812</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.7744414210319519</c:v>
@@ -5549,13 +5549,13 @@
                   <c:v>-0.9788815975189209</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.653157234191895</c:v>
+                  <c:v>9.653159141540527</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-1.97917115688324</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.40916538238525</c:v>
+                  <c:v>14.40918064117432</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-0.3217698633670807</c:v>
@@ -5570,7 +5570,7 @@
                   <c:v>-0.115847148001194</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.8505645394325256</c:v>
+                  <c:v>0.8505607843399048</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-0.5692030787467957</c:v>
@@ -5585,28 +5585,28 @@
                   <c:v>10.54462623596191</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.356471985578537</c:v>
+                  <c:v>-0.3564701080322266</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.1621595174074173</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.01958788931369781</c:v>
+                  <c:v>0.0195897538214922</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-0.7002166509628296</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.193940043449402</c:v>
+                  <c:v>-1.193938136100769</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.2649940848350525</c:v>
+                  <c:v>-0.2649959325790405</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>-0.229670986533165</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.193167924880981</c:v>
+                  <c:v>-1.193166136741638</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.0663217157125473</c:v>
@@ -5618,7 +5618,7 @@
                   <c:v>-0.2501949965953827</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50.27452850341797</c:v>
+                  <c:v>50.2745246887207</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>-0.6064171195030212</c:v>
@@ -5630,13 +5630,13 @@
                   <c:v>-0.1360149830579758</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1372979730367661</c:v>
+                  <c:v>0.1372998356819153</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.9834858179092407</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>50.13376235961914</c:v>
+                  <c:v>50.13376617431641</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>44.56851196289062</c:v>
@@ -5645,16 +5645,16 @@
                   <c:v>-0.7396870851516724</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-5.396800994873047</c:v>
+                  <c:v>-5.396797180175781</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.559827327728271</c:v>
+                  <c:v>1.559818029403687</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.7545682191848755</c:v>
+                  <c:v>-0.7545700669288635</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.8729720115661621</c:v>
+                  <c:v>-0.8729664087295532</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>-2.391354084014893</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.6710324883460999</v>
+        <v>-0.6710306406021118</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>48.4769</v>
       </c>
       <c r="F4">
-        <v>43.61507415771484</v>
+        <v>43.61506652832031</v>
       </c>
       <c r="G4">
         <v>72</v>
@@ -6475,7 +6475,7 @@
         <v>46.4901</v>
       </c>
       <c r="F5">
-        <v>23.78258514404297</v>
+        <v>23.7825870513916</v>
       </c>
       <c r="G5">
         <v>72</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>0.08784899860620499</v>
+        <v>0.08785272389650345</v>
       </c>
       <c r="G7">
         <v>72</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.6779938340187073</v>
+        <v>-0.6779956817626953</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.8663706183433533</v>
+        <v>-0.8663780689239502</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>50.02057647705078</v>
+        <v>50.02057266235352</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.79412442445755</v>
+        <v>-0.7941262722015381</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-1.622809171676636</v>
+        <v>-1.622807383537292</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>48.8989</v>
       </c>
       <c r="F16">
-        <v>38.93474197387695</v>
+        <v>38.93474578857422</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>25.9336986541748</v>
+        <v>25.93369293212891</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>44.1708</v>
       </c>
       <c r="F19">
-        <v>45.99028015136719</v>
+        <v>45.99027252197266</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.670074462890625</v>
+        <v>1.670072674751282</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>1.745321154594421</v>
+        <v>1.745323061943054</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>46.0768</v>
       </c>
       <c r="F24">
-        <v>14.51687908172607</v>
+        <v>14.51688289642334</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.1334788501262665</v>
+        <v>0.1334807276725769</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>52.8303</v>
       </c>
       <c r="F31">
-        <v>46.87187957763672</v>
+        <v>46.87187194824219</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-0.6879611611366272</v>
+        <v>-0.6879593133926392</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>37.57556915283203</v>
+        <v>37.5755729675293</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>54.5459</v>
       </c>
       <c r="F40">
-        <v>37.55952835083008</v>
+        <v>37.55953216552734</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>40.45168685913086</v>
+        <v>40.45169067382812</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>9.653157234191895</v>
+        <v>9.653159141540527</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>14.40916538238525</v>
+        <v>14.40918064117432</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.8505645394325256</v>
+        <v>0.8505607843399048</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-0.356471985578537</v>
+        <v>-0.3564701080322266</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.01958788931369781</v>
+        <v>0.0195897538214922</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-1.193940043449402</v>
+        <v>-1.193938136100769</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.2649940848350525</v>
+        <v>-0.2649959325790405</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-1.193167924880981</v>
+        <v>-1.193166136741638</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.8632</v>
       </c>
       <c r="F69">
-        <v>50.27452850341797</v>
+        <v>50.2745246887207</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.1372979730367661</v>
+        <v>0.1372998356819153</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>51.39</v>
       </c>
       <c r="F75">
-        <v>50.13376235961914</v>
+        <v>50.13376617431641</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>-5.396800994873047</v>
+        <v>-5.396797180175781</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.559827327728271</v>
+        <v>1.559818029403687</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.7545682191848755</v>
+        <v>-0.7545700669288635</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-0.8729720115661621</v>
+        <v>-0.8729664087295532</v>
       </c>
     </row>
     <row r="82" spans="1:6">
